--- a/data/strathspey_combined.xlsx
+++ b/data/strathspey_combined.xlsx
@@ -613,7 +613,7 @@
     <col min="11" max="11" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
